--- a/data/trans_orig/IP3101-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3101-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30073366-B950-4D06-9608-95C136C24F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDC0B3C6-3576-4505-BDE3-3A369C927229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{BA5B42BF-0B88-49C4-8437-57E853590629}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A18B5A86-CB17-490A-9001-1760989AD1FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,6 +70,66 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
     <t>3 o 4 veces a la semana</t>
   </si>
   <si>
@@ -100,34 +160,34 @@
     <t>18,87%</t>
   </si>
   <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -160,72 +220,201 @@
     <t>5,77%</t>
   </si>
   <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
     <t>18,76%</t>
   </si>
   <si>
@@ -253,31 +442,31 @@
     <t>22,88%</t>
   </si>
   <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
   </si>
   <si>
     <t>7,25%</t>
@@ -307,193 +496,58 @@
     <t>9,42%</t>
   </si>
   <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
   </si>
   <si>
     <t>18,11%</t>
@@ -523,31 +577,31 @@
     <t>20,23%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
   </si>
   <si>
     <t>6,35%</t>
@@ -574,63 +628,63 @@
     <t>7,49%</t>
   </si>
   <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
     <t>Menores según la frecuencia de tomar fruta en 2012 (Tasa respuesta: 92,0%)</t>
   </si>
   <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
     <t>9,17%</t>
   </si>
   <si>
@@ -655,31 +709,31 @@
     <t>11,88%</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>2,7%</t>
@@ -709,58 +763,181 @@
     <t>3,5%</t>
   </si>
   <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
   </si>
   <si>
     <t>20,4%</t>
@@ -787,39 +964,36 @@
     <t>22,93%</t>
   </si>
   <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
   </si>
   <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
     <t>6,97%</t>
   </si>
   <si>
@@ -841,178 +1015,58 @@
     <t>5,84%</t>
   </si>
   <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
   </si>
   <si>
     <t>16,62%</t>
@@ -1039,31 +1093,28 @@
     <t>18,1%</t>
   </si>
   <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
   </si>
   <si>
     <t>3,68%</t>
@@ -1093,60 +1144,57 @@
     <t>3,9%</t>
   </si>
   <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
     <t>Menores según la frecuencia de tomar fruta en 2015 (Tasa respuesta: 92,85%)</t>
   </si>
   <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
     <t>10,92%</t>
   </si>
   <si>
@@ -1171,25 +1219,25 @@
     <t>11,83%</t>
   </si>
   <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
   </si>
   <si>
     <t>1,59%</t>
@@ -1210,52 +1258,178 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
   <si>
     <t>17,62%</t>
@@ -1282,31 +1456,28 @@
     <t>22,95%</t>
   </si>
   <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
   </si>
   <si>
     <t>4,86%</t>
@@ -1333,175 +1504,58 @@
     <t>5,32%</t>
   </si>
   <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
   </si>
   <si>
     <t>14,36%</t>
@@ -1528,31 +1582,25 @@
     <t>16,55%</t>
   </si>
   <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>3,64%</t>
@@ -1580,54 +1628,6 @@
   </si>
   <si>
     <t>3,53%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
   </si>
 </sst>
 </file>
@@ -2019,7 +2019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0F0EDF-E0E0-445A-B4E4-20994B639557}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC985790-3EBA-4555-9453-CAF8B04F05DA}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2137,10 +2137,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="D4" s="7">
-        <v>29082</v>
+        <v>91406</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2152,10 +2152,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="I4" s="7">
-        <v>24065</v>
+        <v>98846</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2167,10 +2167,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="N4" s="7">
-        <v>53147</v>
+        <v>190252</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2239,10 +2239,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>10245</v>
+        <v>29082</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2254,10 +2254,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="I6" s="7">
-        <v>3822</v>
+        <v>24065</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2269,10 +2269,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="N6" s="7">
-        <v>14068</v>
+        <v>53147</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2290,10 +2290,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>91406</v>
+        <v>12693</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2305,10 +2305,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>98846</v>
+        <v>6903</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2320,10 +2320,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>287</v>
+        <v>30</v>
       </c>
       <c r="N7" s="7">
-        <v>190252</v>
+        <v>19597</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -2341,10 +2341,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7">
-        <v>12693</v>
+        <v>10245</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -2356,10 +2356,10 @@
         <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>6903</v>
+        <v>3822</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -2371,10 +2371,10 @@
         <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N8" s="7">
-        <v>19597</v>
+        <v>14068</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -2445,10 +2445,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="D10" s="7">
-        <v>52413</v>
+        <v>91101</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -2460,10 +2460,10 @@
         <v>64</v>
       </c>
       <c r="H10" s="7">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="I10" s="7">
-        <v>56043</v>
+        <v>90757</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -2475,10 +2475,10 @@
         <v>67</v>
       </c>
       <c r="M10" s="7">
-        <v>160</v>
+        <v>274</v>
       </c>
       <c r="N10" s="7">
-        <v>108456</v>
+        <v>181857</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -2496,10 +2496,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D11" s="7">
-        <v>59692</v>
+        <v>53405</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -2511,34 +2511,34 @@
         <v>73</v>
       </c>
       <c r="H11" s="7">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I11" s="7">
-        <v>49202</v>
+        <v>41800</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>142</v>
+      </c>
+      <c r="N11" s="7">
+        <v>95204</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="M11" s="7">
-        <v>164</v>
-      </c>
-      <c r="N11" s="7">
-        <v>108893</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,49 +2547,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D12" s="7">
-        <v>20255</v>
+        <v>40625</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>57</v>
+      </c>
+      <c r="I12" s="7">
+        <v>38838</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="7">
-        <v>29</v>
-      </c>
-      <c r="I12" s="7">
-        <v>20003</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>118</v>
+      </c>
+      <c r="N12" s="7">
+        <v>79463</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M12" s="7">
-        <v>60</v>
-      </c>
-      <c r="N12" s="7">
-        <v>40257</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,49 +2598,49 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>115137</v>
+        <v>19308</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>23</v>
+      </c>
+      <c r="I13" s="7">
+        <v>15181</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="7">
-        <v>165</v>
-      </c>
-      <c r="I13" s="7">
-        <v>110346</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>52</v>
+      </c>
+      <c r="N13" s="7">
+        <v>34490</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M13" s="7">
-        <v>338</v>
-      </c>
-      <c r="N13" s="7">
-        <v>225483</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,49 +2649,49 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>31913</v>
+        <v>12293</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>24</v>
+      </c>
+      <c r="I14" s="7">
+        <v>16553</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="7">
-        <v>41</v>
-      </c>
-      <c r="I14" s="7">
-        <v>28533</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>43</v>
+      </c>
+      <c r="N14" s="7">
+        <v>28846</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M14" s="7">
-        <v>89</v>
-      </c>
-      <c r="N14" s="7">
-        <v>60446</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,10 +2700,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D15" s="7">
-        <v>279410</v>
+        <v>216732</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -2715,10 +2715,10 @@
         <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>392</v>
+        <v>301</v>
       </c>
       <c r="I15" s="7">
-        <v>264127</v>
+        <v>203128</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -2730,10 +2730,10 @@
         <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>811</v>
+        <v>629</v>
       </c>
       <c r="N15" s="7">
-        <v>543536</v>
+        <v>419860</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -2747,55 +2747,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="D16" s="7">
-        <v>40625</v>
+        <v>115137</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>165</v>
+      </c>
+      <c r="I16" s="7">
+        <v>110346</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="7">
-        <v>57</v>
-      </c>
-      <c r="I16" s="7">
-        <v>38838</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>338</v>
+      </c>
+      <c r="N16" s="7">
+        <v>225483</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M16" s="7">
-        <v>118</v>
-      </c>
-      <c r="N16" s="7">
-        <v>79463</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,40 +2804,40 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D17" s="7">
-        <v>53405</v>
+        <v>59692</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>75</v>
+      </c>
+      <c r="I17" s="7">
+        <v>49202</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="7">
-        <v>62</v>
-      </c>
-      <c r="I17" s="7">
-        <v>41800</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>121</v>
       </c>
       <c r="M17" s="7">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="N17" s="7">
-        <v>95204</v>
+        <v>108893</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>122</v>
@@ -2855,10 +2855,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D18" s="7">
-        <v>12293</v>
+        <v>52413</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>125</v>
@@ -2870,10 +2870,10 @@
         <v>127</v>
       </c>
       <c r="H18" s="7">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I18" s="7">
-        <v>16553</v>
+        <v>56043</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>128</v>
@@ -2885,10 +2885,10 @@
         <v>130</v>
       </c>
       <c r="M18" s="7">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="N18" s="7">
-        <v>28846</v>
+        <v>108456</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>131</v>
@@ -2906,10 +2906,10 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
-        <v>91101</v>
+        <v>31913</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>134</v>
@@ -2921,10 +2921,10 @@
         <v>136</v>
       </c>
       <c r="H19" s="7">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="I19" s="7">
-        <v>90757</v>
+        <v>28533</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>137</v>
@@ -2936,10 +2936,10 @@
         <v>139</v>
       </c>
       <c r="M19" s="7">
-        <v>274</v>
+        <v>89</v>
       </c>
       <c r="N19" s="7">
-        <v>181857</v>
+        <v>60446</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>140</v>
@@ -2957,10 +2957,10 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20" s="7">
-        <v>19308</v>
+        <v>20255</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>143</v>
@@ -2972,10 +2972,10 @@
         <v>145</v>
       </c>
       <c r="H20" s="7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I20" s="7">
-        <v>15181</v>
+        <v>20003</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>146</v>
@@ -2987,10 +2987,10 @@
         <v>148</v>
       </c>
       <c r="M20" s="7">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N20" s="7">
-        <v>34490</v>
+        <v>40257</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>149</v>
@@ -3008,10 +3008,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>328</v>
+        <v>419</v>
       </c>
       <c r="D21" s="7">
-        <v>216732</v>
+        <v>279410</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -3023,10 +3023,10 @@
         <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>301</v>
+        <v>392</v>
       </c>
       <c r="I21" s="7">
-        <v>203128</v>
+        <v>264127</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -3038,10 +3038,10 @@
         <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>629</v>
+        <v>811</v>
       </c>
       <c r="N21" s="7">
-        <v>419860</v>
+        <v>543536</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -3061,10 +3061,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>183</v>
+        <v>450</v>
       </c>
       <c r="D22" s="7">
-        <v>122121</v>
+        <v>297644</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>152</v>
@@ -3076,10 +3076,10 @@
         <v>154</v>
       </c>
       <c r="H22" s="7">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="I22" s="7">
-        <v>118946</v>
+        <v>299949</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>155</v>
@@ -3091,10 +3091,10 @@
         <v>157</v>
       </c>
       <c r="M22" s="7">
-        <v>358</v>
+        <v>899</v>
       </c>
       <c r="N22" s="7">
-        <v>241066</v>
+        <v>597593</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>158</v>
@@ -3163,10 +3163,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="D24" s="7">
-        <v>42793</v>
+        <v>122121</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>170</v>
@@ -3178,10 +3178,10 @@
         <v>172</v>
       </c>
       <c r="H24" s="7">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="I24" s="7">
-        <v>40378</v>
+        <v>118946</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>173</v>
@@ -3193,19 +3193,19 @@
         <v>175</v>
       </c>
       <c r="M24" s="7">
-        <v>124</v>
+        <v>358</v>
       </c>
       <c r="N24" s="7">
-        <v>83171</v>
+        <v>241066</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,49 +3214,49 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>450</v>
+        <v>96</v>
       </c>
       <c r="D25" s="7">
-        <v>297644</v>
+        <v>63915</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
-        <v>449</v>
+        <v>75</v>
       </c>
       <c r="I25" s="7">
-        <v>299949</v>
+        <v>50618</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
-        <v>899</v>
+        <v>171</v>
       </c>
       <c r="N25" s="7">
-        <v>597593</v>
+        <v>114533</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,43 +3265,43 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D26" s="7">
-        <v>63915</v>
+        <v>42793</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" s="7">
+        <v>59</v>
+      </c>
+      <c r="I26" s="7">
+        <v>40378</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M26" s="7">
+        <v>124</v>
+      </c>
+      <c r="N26" s="7">
+        <v>83171</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H26" s="7">
-        <v>75</v>
-      </c>
-      <c r="I26" s="7">
-        <v>50618</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M26" s="7">
-        <v>171</v>
-      </c>
-      <c r="N26" s="7">
-        <v>114533</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>194</v>
@@ -3377,7 +3377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DF2B25-2813-4FD8-837C-A95B511C85F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD95D096-C77F-4D8E-AC71-F0B131EA37DD}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3495,10 +3495,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="D4" s="7">
-        <v>16592</v>
+        <v>124270</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>197</v>
@@ -3510,10 +3510,10 @@
         <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="I4" s="7">
-        <v>16402</v>
+        <v>121461</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>200</v>
@@ -3525,19 +3525,19 @@
         <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>49</v>
+        <v>359</v>
       </c>
       <c r="N4" s="7">
-        <v>32994</v>
+        <v>245731</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3552,13 @@
         <v>29759</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -3567,13 +3567,13 @@
         <v>24450</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>81</v>
@@ -3582,13 +3582,13 @@
         <v>54209</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,46 +3597,46 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D6" s="7">
-        <v>4883</v>
+        <v>16592</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>1265</v>
+        <v>16402</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M6" s="7">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="N6" s="7">
-        <v>6148</v>
+        <v>32994</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>222</v>
@@ -3648,10 +3648,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>174</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>124270</v>
+        <v>5407</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>223</v>
@@ -3663,10 +3663,10 @@
         <v>225</v>
       </c>
       <c r="H7" s="7">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>121461</v>
+        <v>7624</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>226</v>
@@ -3678,10 +3678,10 @@
         <v>228</v>
       </c>
       <c r="M7" s="7">
-        <v>359</v>
+        <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>245731</v>
+        <v>13031</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>229</v>
@@ -3699,10 +3699,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>5407</v>
+        <v>4883</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>232</v>
@@ -3714,10 +3714,10 @@
         <v>234</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>7624</v>
+        <v>1265</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>235</v>
@@ -3729,10 +3729,10 @@
         <v>237</v>
       </c>
       <c r="M8" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="N8" s="7">
-        <v>13031</v>
+        <v>6148</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>238</v>
@@ -3803,10 +3803,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="D10" s="7">
-        <v>55006</v>
+        <v>135443</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>241</v>
@@ -3818,34 +3818,34 @@
         <v>243</v>
       </c>
       <c r="H10" s="7">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="I10" s="7">
-        <v>50490</v>
+        <v>132281</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
-        <v>152</v>
+        <v>370</v>
       </c>
       <c r="N10" s="7">
-        <v>105496</v>
+        <v>267725</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,46 +3857,46 @@
         <v>59</v>
       </c>
       <c r="D11" s="7">
-        <v>40431</v>
+        <v>41595</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>43321</v>
+        <v>38046</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="N11" s="7">
-        <v>83751</v>
+        <v>79641</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,49 +3905,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D12" s="7">
-        <v>11696</v>
+        <v>43168</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H12" s="7">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>9507</v>
+        <v>37394</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M12" s="7">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="N12" s="7">
-        <v>21203</v>
+        <v>80562</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,49 +3956,49 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>128890</v>
+        <v>10964</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>130925</v>
+        <v>15958</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
-        <v>377</v>
+        <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>259814</v>
+        <v>26921</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,49 +4007,49 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7">
-        <v>33622</v>
+        <v>8815</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>21560</v>
+        <v>5072</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="N14" s="7">
-        <v>55182</v>
+        <v>13887</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,10 +4058,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>397</v>
+        <v>332</v>
       </c>
       <c r="D15" s="7">
-        <v>269645</v>
+        <v>239985</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -4073,10 +4073,10 @@
         <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="I15" s="7">
-        <v>255802</v>
+        <v>228750</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -4088,10 +4088,10 @@
         <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>761</v>
+        <v>652</v>
       </c>
       <c r="N15" s="7">
-        <v>525447</v>
+        <v>468736</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -4105,19 +4105,19 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="D16" s="7">
-        <v>43168</v>
+        <v>128890</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>284</v>
@@ -4126,10 +4126,10 @@
         <v>285</v>
       </c>
       <c r="H16" s="7">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="I16" s="7">
-        <v>37394</v>
+        <v>130925</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>286</v>
@@ -4141,19 +4141,19 @@
         <v>288</v>
       </c>
       <c r="M16" s="7">
-        <v>113</v>
+        <v>377</v>
       </c>
       <c r="N16" s="7">
-        <v>80562</v>
+        <v>259814</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,46 +4165,46 @@
         <v>59</v>
       </c>
       <c r="D17" s="7">
-        <v>41595</v>
+        <v>40431</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>61</v>
+      </c>
+      <c r="I17" s="7">
+        <v>43321</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H17" s="7">
-        <v>52</v>
-      </c>
-      <c r="I17" s="7">
-        <v>38046</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>120</v>
+      </c>
+      <c r="N17" s="7">
+        <v>83751</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="M17" s="7">
-        <v>111</v>
-      </c>
-      <c r="N17" s="7">
-        <v>79641</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,49 +4213,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D18" s="7">
-        <v>8815</v>
+        <v>55006</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>70</v>
+      </c>
+      <c r="I18" s="7">
+        <v>50490</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="H18" s="7">
-        <v>8</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5072</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>152</v>
+      </c>
+      <c r="N18" s="7">
+        <v>105496</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="M18" s="7">
-        <v>21</v>
-      </c>
-      <c r="N18" s="7">
-        <v>13887</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,49 +4264,49 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="D19" s="7">
-        <v>135443</v>
+        <v>33622</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>32</v>
+      </c>
+      <c r="I19" s="7">
+        <v>21560</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H19" s="7">
-        <v>187</v>
-      </c>
-      <c r="I19" s="7">
-        <v>132281</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>82</v>
+      </c>
+      <c r="N19" s="7">
+        <v>55182</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="M19" s="7">
-        <v>370</v>
-      </c>
-      <c r="N19" s="7">
-        <v>267725</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,46 +4318,46 @@
         <v>16</v>
       </c>
       <c r="D20" s="7">
-        <v>10964</v>
+        <v>11696</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H20" s="7">
+        <v>14</v>
+      </c>
+      <c r="I20" s="7">
+        <v>9507</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="H20" s="7">
-        <v>21</v>
-      </c>
-      <c r="I20" s="7">
-        <v>15958</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>30</v>
+      </c>
+      <c r="N20" s="7">
+        <v>21203</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="M20" s="7">
-        <v>37</v>
-      </c>
-      <c r="N20" s="7">
-        <v>26921</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,10 +4366,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>332</v>
+        <v>397</v>
       </c>
       <c r="D21" s="7">
-        <v>239985</v>
+        <v>269645</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -4381,10 +4381,10 @@
         <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="I21" s="7">
-        <v>228750</v>
+        <v>255802</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -4396,10 +4396,10 @@
         <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>652</v>
+        <v>761</v>
       </c>
       <c r="N21" s="7">
-        <v>468736</v>
+        <v>525447</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -4419,10 +4419,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>167</v>
+        <v>547</v>
       </c>
       <c r="D22" s="7">
-        <v>114766</v>
+        <v>388603</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>325</v>
@@ -4434,10 +4434,10 @@
         <v>327</v>
       </c>
       <c r="H22" s="7">
-        <v>147</v>
+        <v>559</v>
       </c>
       <c r="I22" s="7">
-        <v>104286</v>
+        <v>384667</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>328</v>
@@ -4449,19 +4449,19 @@
         <v>330</v>
       </c>
       <c r="M22" s="7">
-        <v>314</v>
+        <v>1106</v>
       </c>
       <c r="N22" s="7">
-        <v>219052</v>
+        <v>773269</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>331</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4476,13 @@
         <v>111785</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H23" s="7">
         <v>150</v>
@@ -4491,13 +4491,13 @@
         <v>105816</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M23" s="7">
         <v>312</v>
@@ -4506,13 +4506,13 @@
         <v>217601</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,43 +4521,43 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="D24" s="7">
-        <v>25394</v>
+        <v>114766</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H24" s="7">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="I24" s="7">
-        <v>15844</v>
+        <v>104286</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M24" s="7">
-        <v>60</v>
+        <v>314</v>
       </c>
       <c r="N24" s="7">
-        <v>41238</v>
+        <v>219052</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>348</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>349</v>
@@ -4572,49 +4572,49 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>547</v>
+        <v>74</v>
       </c>
       <c r="D25" s="7">
-        <v>388603</v>
+        <v>49993</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>351</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>65</v>
+      </c>
+      <c r="I25" s="7">
+        <v>45141</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H25" s="7">
-        <v>559</v>
-      </c>
-      <c r="I25" s="7">
-        <v>384667</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>139</v>
+      </c>
+      <c r="N25" s="7">
+        <v>95134</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="M25" s="7">
-        <v>1106</v>
-      </c>
-      <c r="N25" s="7">
-        <v>773269</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,25 +4623,25 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D26" s="7">
-        <v>49993</v>
+        <v>25394</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>361</v>
       </c>
       <c r="H26" s="7">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I26" s="7">
-        <v>45141</v>
+        <v>15844</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>362</v>
@@ -4653,10 +4653,10 @@
         <v>364</v>
       </c>
       <c r="M26" s="7">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="N26" s="7">
-        <v>95134</v>
+        <v>41238</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>365</v>
@@ -4735,7 +4735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC28CC6B-665A-4458-B06B-4F6336C3B3D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5876E5E-A468-4FDD-8DAE-2DB22CAAF9E1}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4853,10 +4853,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="D4" s="7">
-        <v>18376</v>
+        <v>107509</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>369</v>
@@ -4868,34 +4868,34 @@
         <v>371</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="I4" s="7">
-        <v>10684</v>
+        <v>105601</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>372</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>306</v>
+        <v>373</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M4" s="7">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="N4" s="7">
-        <v>29060</v>
+        <v>213109</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4910,13 @@
         <v>30988</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H5" s="7">
         <v>54</v>
@@ -4928,10 +4928,10 @@
         <v>161</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M5" s="7">
         <v>100</v>
@@ -4940,13 +4940,13 @@
         <v>64833</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,49 +4955,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>2682</v>
+        <v>18376</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I6" s="7">
-        <v>648</v>
+        <v>10684</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="N6" s="7">
-        <v>3329</v>
+        <v>29060</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>390</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>236</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,49 +5006,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>107509</v>
+        <v>8744</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>391</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H7" s="7">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>105601</v>
+        <v>3712</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M7" s="7">
-        <v>336</v>
+        <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>213109</v>
+        <v>12456</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>398</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,49 +5057,49 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>8744</v>
+        <v>2682</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>214</v>
+        <v>401</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>3712</v>
+        <v>648</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>402</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>12456</v>
+        <v>3329</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>404</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>405</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,40 +5161,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="D10" s="7">
-        <v>48998</v>
+        <v>140717</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>198</v>
+      </c>
+      <c r="I10" s="7">
+        <v>128058</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="H10" s="7">
-        <v>84</v>
-      </c>
-      <c r="I10" s="7">
-        <v>60065</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>410</v>
       </c>
       <c r="M10" s="7">
-        <v>150</v>
+        <v>403</v>
       </c>
       <c r="N10" s="7">
-        <v>109062</v>
+        <v>268775</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>411</v>
@@ -5212,49 +5212,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="7">
-        <v>64034</v>
+        <v>57134</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>414</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>82</v>
+      </c>
+      <c r="I11" s="7">
+        <v>54494</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H11" s="7">
-        <v>81</v>
-      </c>
-      <c r="I11" s="7">
-        <v>58710</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>164</v>
+      </c>
+      <c r="N11" s="7">
+        <v>111627</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="M11" s="7">
-        <v>167</v>
-      </c>
-      <c r="N11" s="7">
-        <v>122743</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,43 +5263,43 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7">
-        <v>13524</v>
+        <v>32526</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>49</v>
+      </c>
+      <c r="I12" s="7">
+        <v>32712</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="H12" s="7">
-        <v>10</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6763</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>96</v>
+      </c>
+      <c r="N12" s="7">
+        <v>65237</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="M12" s="7">
-        <v>29</v>
-      </c>
-      <c r="N12" s="7">
-        <v>20287</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>429</v>
@@ -5314,49 +5314,49 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>127075</v>
+        <v>9873</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>21</v>
+      </c>
+      <c r="I13" s="7">
+        <v>13429</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="H13" s="7">
-        <v>167</v>
-      </c>
-      <c r="I13" s="7">
-        <v>120570</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>36</v>
+      </c>
+      <c r="N13" s="7">
+        <v>23302</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="M13" s="7">
-        <v>339</v>
-      </c>
-      <c r="N13" s="7">
-        <v>247645</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,49 +5365,49 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7">
-        <v>24408</v>
+        <v>9094</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>7</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4525</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="H14" s="7">
-        <v>32</v>
-      </c>
-      <c r="I14" s="7">
-        <v>21006</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>20</v>
+      </c>
+      <c r="N14" s="7">
+        <v>13619</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="M14" s="7">
-        <v>65</v>
-      </c>
-      <c r="N14" s="7">
-        <v>45414</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,10 +5416,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="D15" s="7">
-        <v>278039</v>
+        <v>249344</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5431,10 +5431,10 @@
         <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="I15" s="7">
-        <v>267113</v>
+        <v>233217</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -5446,10 +5446,10 @@
         <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>750</v>
+        <v>719</v>
       </c>
       <c r="N15" s="7">
-        <v>545152</v>
+        <v>482560</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5463,55 +5463,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="D16" s="7">
-        <v>32526</v>
+        <v>127075</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>167</v>
+      </c>
+      <c r="I16" s="7">
+        <v>120570</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="H16" s="7">
-        <v>49</v>
-      </c>
-      <c r="I16" s="7">
-        <v>32712</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>339</v>
+      </c>
+      <c r="N16" s="7">
+        <v>247645</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="M16" s="7">
-        <v>96</v>
-      </c>
-      <c r="N16" s="7">
-        <v>65237</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,49 +5520,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D17" s="7">
-        <v>57134</v>
+        <v>64034</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>81</v>
+      </c>
+      <c r="I17" s="7">
+        <v>58710</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="H17" s="7">
-        <v>82</v>
-      </c>
-      <c r="I17" s="7">
-        <v>54494</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>167</v>
+      </c>
+      <c r="N17" s="7">
+        <v>122743</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="M17" s="7">
-        <v>164</v>
-      </c>
-      <c r="N17" s="7">
-        <v>111627</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,49 +5571,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D18" s="7">
-        <v>9094</v>
+        <v>48998</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>84</v>
+      </c>
+      <c r="I18" s="7">
+        <v>60065</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="H18" s="7">
-        <v>7</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4525</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>150</v>
+      </c>
+      <c r="N18" s="7">
+        <v>109062</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="M18" s="7">
-        <v>20</v>
-      </c>
-      <c r="N18" s="7">
-        <v>13619</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5622,13 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>140717</v>
+        <v>24408</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>472</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>473</v>
@@ -5637,34 +5637,34 @@
         <v>474</v>
       </c>
       <c r="H19" s="7">
-        <v>198</v>
+        <v>32</v>
       </c>
       <c r="I19" s="7">
-        <v>128058</v>
+        <v>21006</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>475</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>65</v>
+      </c>
+      <c r="N19" s="7">
+        <v>45414</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M19" s="7">
-        <v>403</v>
-      </c>
-      <c r="N19" s="7">
-        <v>268775</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5673,13 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20" s="7">
-        <v>9873</v>
+        <v>13524</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>58</v>
+        <v>480</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>481</v>
@@ -5688,10 +5688,10 @@
         <v>482</v>
       </c>
       <c r="H20" s="7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I20" s="7">
-        <v>13429</v>
+        <v>6763</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>483</v>
@@ -5703,16 +5703,16 @@
         <v>485</v>
       </c>
       <c r="M20" s="7">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N20" s="7">
-        <v>23302</v>
+        <v>20287</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>487</v>
@@ -5724,10 +5724,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="D21" s="7">
-        <v>249344</v>
+        <v>278039</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -5739,10 +5739,10 @@
         <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="I21" s="7">
-        <v>233217</v>
+        <v>267113</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5754,10 +5754,10 @@
         <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>719</v>
+        <v>750</v>
       </c>
       <c r="N21" s="7">
-        <v>482560</v>
+        <v>545152</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -5777,10 +5777,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>140</v>
+        <v>541</v>
       </c>
       <c r="D22" s="7">
-        <v>99900</v>
+        <v>375301</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>488</v>
@@ -5789,37 +5789,37 @@
         <v>489</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>28</v>
+        <v>490</v>
       </c>
       <c r="H22" s="7">
-        <v>151</v>
+        <v>537</v>
       </c>
       <c r="I22" s="7">
-        <v>103461</v>
+        <v>354229</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M22" s="7">
-        <v>291</v>
+        <v>1078</v>
       </c>
       <c r="N22" s="7">
-        <v>203360</v>
+        <v>729529</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,13 +5834,13 @@
         <v>152155</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H23" s="7">
         <v>217</v>
@@ -5849,13 +5849,13 @@
         <v>147049</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M23" s="7">
         <v>431</v>
@@ -5864,13 +5864,13 @@
         <v>299204</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,25 +5879,25 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="D24" s="7">
-        <v>25300</v>
+        <v>99900</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>507</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I24" s="7">
-        <v>11935</v>
+        <v>103461</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>508</v>
@@ -5909,10 +5909,10 @@
         <v>510</v>
       </c>
       <c r="M24" s="7">
-        <v>54</v>
+        <v>291</v>
       </c>
       <c r="N24" s="7">
-        <v>37235</v>
+        <v>203360</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>511</v>
@@ -5930,49 +5930,49 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>541</v>
+        <v>61</v>
       </c>
       <c r="D25" s="7">
-        <v>375301</v>
+        <v>43025</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>59</v>
+      </c>
+      <c r="I25" s="7">
+        <v>38146</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="H25" s="7">
-        <v>537</v>
-      </c>
-      <c r="I25" s="7">
-        <v>354229</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>120</v>
+      </c>
+      <c r="N25" s="7">
+        <v>81172</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="M25" s="7">
-        <v>1078</v>
-      </c>
-      <c r="N25" s="7">
-        <v>729529</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,46 +5981,46 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D26" s="7">
-        <v>43025</v>
+        <v>25300</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>521</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>18</v>
+      </c>
+      <c r="I26" s="7">
+        <v>11935</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="H26" s="7">
-        <v>59</v>
-      </c>
-      <c r="I26" s="7">
-        <v>38146</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>54</v>
+      </c>
+      <c r="N26" s="7">
+        <v>37235</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="M26" s="7">
-        <v>120</v>
-      </c>
-      <c r="N26" s="7">
-        <v>81172</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>529</v>

--- a/data/trans_orig/IP3101-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3101-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B555744-BB46-4566-A237-0129FA97088C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A50E329-3B7E-49AE-9DED-5F610DDB279F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D70BBB75-C0EC-46B3-9CA9-79A9D79D7B24}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D10BB4B-8FE1-4E5F-B2C7-D912ABFBA092}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="635">
   <si>
     <t>Menores según la frecuencia de tomar fruta en 2007 (Tasa respuesta: 93,35%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>3,52%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
   </si>
   <si>
     <t>3,08%</t>
@@ -88,16 +88,16 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>8,78%</t>
+    <t>8,73%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -106,1870 +106,1843 @@
     <t>4,27%</t>
   </si>
   <si>
-    <t>1,65%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>1,8%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3 o 4 veces a la semana</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar fruta en 2012 (Tasa respuesta: 92,0%)</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>3 o 4 veces a la semana</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar fruta en 2016 (Tasa respuesta: 92,85%)</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar fruta en 2012 (Tasa respuesta: 92,0%)</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar fruta en 2015 (Tasa respuesta: 92,85%)</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>6,01%</t>
   </si>
   <si>
+    <t>7,17%</t>
+  </si>
+  <si>
     <t>14,36%</t>
   </si>
   <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
+    <t>12,35%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>21,87%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
   </si>
   <si>
     <t>22,46%</t>
   </si>
   <si>
-    <t>24,97%</t>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
   </si>
   <si>
     <t>53,95%</t>
   </si>
   <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
   </si>
   <si>
     <t>54,1%</t>
   </si>
   <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
   </si>
   <si>
     <t>54,02%</t>
   </si>
   <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
+    <t>56,25%</t>
   </si>
 </sst>
 </file>
@@ -2381,7 +2354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D8E884-F4E3-4166-B67F-AFF3F7073583}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A907CB-30CC-4316-9165-3DE7146D82E5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2900,7 +2873,7 @@
         <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2888,13 @@
         <v>43774</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>58</v>
@@ -2930,13 +2903,13 @@
         <v>38890</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>124</v>
@@ -2945,13 +2918,13 @@
         <v>82664</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2939,13 @@
         <v>56546</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -2981,13 +2954,13 @@
         <v>55857</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>169</v>
@@ -2996,13 +2969,13 @@
         <v>112403</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +2990,13 @@
         <v>120100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>193</v>
@@ -3032,13 +3005,13 @@
         <v>129623</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>375</v>
@@ -3047,13 +3020,13 @@
         <v>249723</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,7 +3082,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3121,13 +3094,13 @@
         <v>10342</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3136,13 +3109,13 @@
         <v>8864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -3151,13 +3124,13 @@
         <v>19206</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3145,13 @@
         <v>17164</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -3187,13 +3160,13 @@
         <v>13068</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -3202,13 +3175,13 @@
         <v>30232</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3196,13 @@
         <v>29277</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>44</v>
@@ -3238,13 +3211,13 @@
         <v>30220</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>88</v>
@@ -3253,13 +3226,13 @@
         <v>59497</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3247,13 @@
         <v>28369</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -3289,13 +3262,13 @@
         <v>22890</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>76</v>
@@ -3304,13 +3277,13 @@
         <v>51259</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3298,13 @@
         <v>54753</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>78</v>
@@ -3340,13 +3313,13 @@
         <v>51045</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>161</v>
@@ -3355,13 +3328,13 @@
         <v>105798</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,7 +3390,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3429,13 +3402,13 @@
         <v>16365</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -3444,13 +3417,13 @@
         <v>16254</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>48</v>
@@ -3459,13 +3432,13 @@
         <v>32619</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,13 +3453,13 @@
         <v>24867</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -3495,13 +3468,13 @@
         <v>22242</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>70</v>
@@ -3510,13 +3483,13 @@
         <v>47109</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3504,13 @@
         <v>35775</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>57</v>
@@ -3546,13 +3519,13 @@
         <v>38633</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>110</v>
@@ -3561,13 +3534,13 @@
         <v>74408</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,13 +3555,13 @@
         <v>47349</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -3597,13 +3570,13 @@
         <v>34997</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>124</v>
@@ -3612,13 +3585,13 @@
         <v>82347</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3606,13 @@
         <v>80566</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>120</v>
@@ -3648,13 +3621,13 @@
         <v>81177</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>241</v>
@@ -3663,13 +3636,13 @@
         <v>161743</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +3710,13 @@
         <v>42793</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="H28" s="7">
         <v>59</v>
@@ -3752,13 +3725,13 @@
         <v>40378</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>124</v>
@@ -3767,13 +3740,13 @@
         <v>83171</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3761,13 @@
         <v>63915</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>75</v>
@@ -3803,13 +3776,13 @@
         <v>50618</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>171</v>
@@ -3818,13 +3791,13 @@
         <v>114533</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3812,13 @@
         <v>122121</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>175</v>
@@ -3854,13 +3827,13 @@
         <v>118946</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>358</v>
@@ -3869,13 +3842,13 @@
         <v>241066</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,13 +3863,13 @@
         <v>147737</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>192</v>
@@ -3905,13 +3878,13 @@
         <v>126705</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>412</v>
@@ -3920,13 +3893,13 @@
         <v>274441</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,13 +3914,13 @@
         <v>297644</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>449</v>
@@ -3956,13 +3929,13 @@
         <v>299949</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>899</v>
@@ -3971,13 +3944,13 @@
         <v>597593</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,7 +4006,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4053,7 +4026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0665E4FC-4F63-4E5E-B1D4-7A86AF4D7E23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C729276-913A-4D5D-B60D-547EC602FA0C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4070,7 +4043,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4177,13 +4150,13 @@
         <v>2938</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4192,13 +4165,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4207,13 +4180,13 @@
         <v>2938</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4201,13 @@
         <v>3398</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -4243,13 +4216,13 @@
         <v>5272</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -4258,13 +4231,13 @@
         <v>8670</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4252,13 @@
         <v>6694</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>256</v>
+        <v>68</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -4294,13 +4267,13 @@
         <v>9648</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="M6" s="7">
         <v>25</v>
@@ -4503,10 +4476,10 @@
         <v>284</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -4515,10 +4488,10 @@
         <v>13003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>288</v>
@@ -4542,7 +4515,7 @@
         <v>290</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>291</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -4551,13 +4524,13 @@
         <v>13323</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>293</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -4566,13 +4539,13 @@
         <v>22108</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4560,13 @@
         <v>41824</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H12" s="7">
         <v>45</v>
@@ -4602,13 +4575,13 @@
         <v>32334</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M12" s="7">
         <v>104</v>
@@ -4617,13 +4590,13 @@
         <v>74158</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4611,13 @@
         <v>52289</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -4653,13 +4626,13 @@
         <v>40243</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -4668,13 +4641,13 @@
         <v>92532</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4662,13 @@
         <v>156060</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H14" s="7">
         <v>211</v>
@@ -4704,13 +4677,13 @@
         <v>144628</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M14" s="7">
         <v>422</v>
@@ -4719,13 +4692,13 @@
         <v>300688</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,7 +4754,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4793,13 +4766,13 @@
         <v>4499</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4808,13 +4781,13 @@
         <v>3426</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -4823,13 +4796,13 @@
         <v>7925</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,13 +4817,13 @@
         <v>12845</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -4859,13 +4832,13 @@
         <v>13327</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -4874,13 +4847,13 @@
         <v>26172</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,13 +4868,13 @@
         <v>25314</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>342</v>
+        <v>164</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -4910,13 +4883,13 @@
         <v>27844</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M18" s="7">
         <v>77</v>
@@ -4925,13 +4898,13 @@
         <v>53158</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4919,13 @@
         <v>24359</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -4961,13 +4934,13 @@
         <v>26879</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -4976,13 +4949,13 @@
         <v>51238</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>357</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +4970,13 @@
         <v>90244</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H20" s="7">
         <v>121</v>
@@ -5012,13 +4985,13 @@
         <v>84958</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M20" s="7">
         <v>251</v>
@@ -5027,13 +5000,13 @@
         <v>175203</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,7 +5062,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5101,13 +5074,13 @@
         <v>9252</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -5116,13 +5089,13 @@
         <v>8120</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -5131,13 +5104,13 @@
         <v>17372</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,13 +5125,13 @@
         <v>24965</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>377</v>
+        <v>176</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -5167,13 +5140,13 @@
         <v>13220</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="M23" s="7">
         <v>57</v>
@@ -5182,13 +5155,13 @@
         <v>38185</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,13 +5176,13 @@
         <v>40935</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H24" s="7">
         <v>47</v>
@@ -5218,13 +5191,13 @@
         <v>34460</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="M24" s="7">
         <v>108</v>
@@ -5233,13 +5206,13 @@
         <v>75395</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5227,13 @@
         <v>26662</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -5269,13 +5242,13 @@
         <v>29421</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -5284,13 +5257,13 @@
         <v>56082</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,13 +5278,13 @@
         <v>76065</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="H26" s="7">
         <v>122</v>
@@ -5320,13 +5293,13 @@
         <v>86116</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="M26" s="7">
         <v>234</v>
@@ -5335,13 +5308,13 @@
         <v>162181</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,13 +5382,13 @@
         <v>25394</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -5424,13 +5397,13 @@
         <v>15844</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="M28" s="7">
         <v>60</v>
@@ -5439,13 +5412,13 @@
         <v>41238</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5433,13 @@
         <v>49993</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H29" s="7">
         <v>65</v>
@@ -5475,13 +5448,13 @@
         <v>45141</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>422</v>
+        <v>162</v>
       </c>
       <c r="M29" s="7">
         <v>139</v>
@@ -5490,13 +5463,13 @@
         <v>95134</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>248</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5484,13 @@
         <v>114766</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H30" s="7">
         <v>147</v>
@@ -5526,13 +5499,13 @@
         <v>104286</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M30" s="7">
         <v>314</v>
@@ -5541,13 +5514,13 @@
         <v>219052</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5535,13 @@
         <v>111785</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>177</v>
+        <v>430</v>
       </c>
       <c r="H31" s="7">
         <v>150</v>
@@ -5577,13 +5550,13 @@
         <v>105816</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M31" s="7">
         <v>312</v>
@@ -5592,13 +5565,13 @@
         <v>217601</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5586,13 @@
         <v>388603</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H32" s="7">
         <v>559</v>
@@ -5628,13 +5601,13 @@
         <v>384667</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M32" s="7">
         <v>1106</v>
@@ -5643,13 +5616,13 @@
         <v>773269</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,7 +5678,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -5725,7 +5698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C073B1AE-53D4-4E59-9AF6-47E349A2B62E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A7EDEB-2C2F-42D6-9251-E9C64A1850F6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5742,7 +5715,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5852,10 +5825,10 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>415</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5864,13 +5837,13 @@
         <v>648</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5879,13 +5852,13 @@
         <v>1363</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5873,13 @@
         <v>1282</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5915,13 +5888,13 @@
         <v>2598</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5930,13 +5903,13 @@
         <v>3880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,13 +5924,13 @@
         <v>8475</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>325</v>
+        <v>456</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>463</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -5966,13 +5939,13 @@
         <v>4250</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -5981,13 +5954,13 @@
         <v>12725</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +5975,13 @@
         <v>14752</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -6017,13 +5990,13 @@
         <v>13772</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>351</v>
+        <v>467</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -6032,13 +6005,13 @@
         <v>28524</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>334</v>
+        <v>470</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6026,13 @@
         <v>54075</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H8" s="7">
         <v>103</v>
@@ -6068,13 +6041,13 @@
         <v>64723</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="M8" s="7">
         <v>186</v>
@@ -6083,13 +6056,13 @@
         <v>118798</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,13 +6130,13 @@
         <v>5648</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -6172,13 +6145,13 @@
         <v>1966</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>490</v>
+        <v>287</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -6187,13 +6160,13 @@
         <v>7614</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6181,13 @@
         <v>13405</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>488</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>281</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -6223,13 +6196,13 @@
         <v>9649</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>495</v>
+        <v>287</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="M11" s="7">
         <v>35</v>
@@ -6238,13 +6211,13 @@
         <v>23053</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6232,13 @@
         <v>27427</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -6274,13 +6247,13 @@
         <v>24645</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M12" s="7">
         <v>80</v>
@@ -6289,13 +6262,13 @@
         <v>52072</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6283,13 @@
         <v>56345</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>507</v>
+        <v>178</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H13" s="7">
         <v>81</v>
@@ -6325,13 +6298,13 @@
         <v>53486</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -6340,13 +6313,13 @@
         <v>109831</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6334,13 @@
         <v>154528</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="H14" s="7">
         <v>192</v>
@@ -6376,13 +6349,13 @@
         <v>119658</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="M14" s="7">
         <v>421</v>
@@ -6391,13 +6364,13 @@
         <v>274185</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,7 +6426,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6465,13 +6438,13 @@
         <v>11123</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>526</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -6480,13 +6453,13 @@
         <v>4600</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -6495,13 +6468,13 @@
         <v>15723</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,13 +6489,13 @@
         <v>12173</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>534</v>
+        <v>321</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -6531,13 +6504,13 @@
         <v>9840</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>487</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -6546,13 +6519,13 @@
         <v>22013</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>538</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>539</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,13 +6540,13 @@
         <v>35274</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -6582,13 +6555,13 @@
         <v>37072</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="M18" s="7">
         <v>100</v>
@@ -6597,13 +6570,13 @@
         <v>72346</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,13 +6591,13 @@
         <v>42135</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>221</v>
+        <v>541</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -6633,13 +6606,13 @@
         <v>41468</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="M19" s="7">
         <v>118</v>
@@ -6648,13 +6621,13 @@
         <v>83603</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6669,13 +6642,13 @@
         <v>87867</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>443</v>
+        <v>551</v>
       </c>
       <c r="H20" s="7">
         <v>135</v>
@@ -6684,13 +6657,13 @@
         <v>93146</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M20" s="7">
         <v>258</v>
@@ -6699,13 +6672,13 @@
         <v>181013</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,7 +6734,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6773,13 +6746,13 @@
         <v>7814</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>567</v>
+        <v>75</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -6788,13 +6761,13 @@
         <v>4722</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -6803,13 +6776,13 @@
         <v>12536</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,13 +6797,13 @@
         <v>16165</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>575</v>
+        <v>420</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -6839,13 +6812,13 @@
         <v>16060</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>577</v>
+        <v>335</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -6854,13 +6827,13 @@
         <v>32226</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,13 +6848,13 @@
         <v>28724</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -6890,13 +6863,13 @@
         <v>37494</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="M24" s="7">
         <v>92</v>
@@ -6905,13 +6878,13 @@
         <v>66217</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6926,13 +6899,13 @@
         <v>38923</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -6941,13 +6914,13 @@
         <v>38323</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -6956,13 +6929,13 @@
         <v>77246</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6977,13 +6950,13 @@
         <v>78832</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="H26" s="7">
         <v>107</v>
@@ -6992,13 +6965,13 @@
         <v>76702</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="M26" s="7">
         <v>213</v>
@@ -7007,13 +6980,13 @@
         <v>155533</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,13 +7054,13 @@
         <v>25300</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>490</v>
+        <v>325</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>464</v>
+        <v>598</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -7096,13 +7069,13 @@
         <v>11935</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>610</v>
+        <v>319</v>
       </c>
       <c r="M28" s="7">
         <v>54</v>
@@ -7111,13 +7084,13 @@
         <v>37235</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>526</v>
+        <v>603</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7132,13 +7105,13 @@
         <v>43025</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>156</v>
+        <v>604</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>613</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>59</v>
@@ -7147,13 +7120,13 @@
         <v>38146</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="M29" s="7">
         <v>120</v>
@@ -7162,13 +7135,13 @@
         <v>81172</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>333</v>
+        <v>153</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>423</v>
+        <v>609</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7183,13 +7156,13 @@
         <v>99900</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>620</v>
+        <v>33</v>
       </c>
       <c r="H30" s="7">
         <v>151</v>
@@ -7198,13 +7171,13 @@
         <v>103461</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="M30" s="7">
         <v>291</v>
@@ -7213,13 +7186,13 @@
         <v>203360</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7234,13 +7207,13 @@
         <v>152155</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H31" s="7">
         <v>217</v>
@@ -7249,13 +7222,13 @@
         <v>147049</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>46</v>
+        <v>622</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="M31" s="7">
         <v>431</v>
@@ -7264,13 +7237,13 @@
         <v>299204</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7285,13 +7258,13 @@
         <v>375301</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="H32" s="7">
         <v>537</v>
@@ -7300,13 +7273,13 @@
         <v>354229</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="M32" s="7">
         <v>1078</v>
@@ -7315,13 +7288,13 @@
         <v>729529</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>642</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7377,7 +7350,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3101-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3101-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A50E329-3B7E-49AE-9DED-5F610DDB279F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7156828A-EB06-4DFB-92DB-E830AB31F618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D10BB4B-8FE1-4E5F-B2C7-D912ABFBA092}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1B4BD5A6-2C9F-4D17-98FD-413A26F4E3D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="639">
   <si>
     <t>Menores según la frecuencia de tomar fruta en 2007 (Tasa respuesta: 93,35%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1240 +73,1816 @@
     <t>Menos de 1 vez semana</t>
   </si>
   <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
     <t>3,52%</t>
   </si>
   <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3 o 4 veces a la semana</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar fruta en 2012 (Tasa respuesta: 92,0%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar fruta en 2016 (Tasa respuesta: 92,85%)</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3 o 4 veces a la semana</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar fruta en 2012 (Tasa respuesta: 92,0%)</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
   </si>
   <si>
     <t>13,58%</t>
@@ -1315,601 +1891,34 @@
     <t>18,28%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar fruta en 2016 (Tasa respuesta: 92,85%)</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
     <t>14,36%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
+    <t>16,69%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
   </si>
   <si>
     <t>21,87%</t>
   </si>
   <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
   </si>
   <si>
     <t>22,16%</t>
@@ -1918,31 +1927,34 @@
     <t>20,27%</t>
   </si>
   <si>
-    <t>24,08%</t>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
   </si>
   <si>
     <t>53,95%</t>
   </si>
   <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
   </si>
   <si>
     <t>54,02%</t>
   </si>
   <si>
-    <t>56,25%</t>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
   </si>
 </sst>
 </file>
@@ -2354,7 +2366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A907CB-30CC-4316-9165-3DE7146D82E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D3ECB0-4459-4918-B0B9-146370A3AF1D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2472,10 +2484,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>2713</v>
+        <v>2056</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2487,10 +2499,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>2056</v>
+        <v>2713</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2523,28 +2535,28 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2346</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7">
         <v>5</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>3285</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2346</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>24</v>
@@ -2574,10 +2586,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>13295</v>
+        <v>11202</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2589,10 +2601,10 @@
         <v>32</v>
       </c>
       <c r="H6" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I6" s="7">
-        <v>11202</v>
+        <v>13295</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>33</v>
@@ -2625,10 +2637,10 @@
         <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>15473</v>
+        <v>12960</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2640,10 +2652,10 @@
         <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I7" s="7">
-        <v>12960</v>
+        <v>15473</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>43</v>
@@ -2676,10 +2688,10 @@
         <v>49</v>
       </c>
       <c r="C8" s="7">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D8" s="7">
-        <v>42225</v>
+        <v>38105</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -2691,10 +2703,10 @@
         <v>52</v>
       </c>
       <c r="H8" s="7">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I8" s="7">
-        <v>38105</v>
+        <v>42225</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>53</v>
@@ -2727,25 +2739,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>101</v>
+      </c>
+      <c r="D9" s="7">
+        <v>66669</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="7">
         <v>116</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>76991</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="7">
-        <v>101</v>
-      </c>
-      <c r="I9" s="7">
-        <v>66669</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -2780,10 +2792,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>13373</v>
+        <v>13203</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -2795,10 +2807,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>13204</v>
+        <v>13373</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -2831,10 +2843,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>18599</v>
+        <v>12962</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -2846,10 +2858,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I11" s="7">
-        <v>12962</v>
+        <v>18599</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -2882,10 +2894,10 @@
         <v>29</v>
       </c>
       <c r="C12" s="7">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7">
-        <v>43774</v>
+        <v>38890</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -2897,10 +2909,10 @@
         <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I12" s="7">
-        <v>38890</v>
+        <v>43774</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -2933,10 +2945,10 @@
         <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" s="7">
-        <v>56546</v>
+        <v>55857</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>88</v>
@@ -2948,10 +2960,10 @@
         <v>90</v>
       </c>
       <c r="H13" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="7">
-        <v>55857</v>
+        <v>56546</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>91</v>
@@ -2984,10 +2996,10 @@
         <v>49</v>
       </c>
       <c r="C14" s="7">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D14" s="7">
-        <v>120100</v>
+        <v>129622</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>97</v>
@@ -2999,10 +3011,10 @@
         <v>99</v>
       </c>
       <c r="H14" s="7">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="I14" s="7">
-        <v>129623</v>
+        <v>120100</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>100</v>
@@ -3020,13 +3032,13 @@
         <v>249723</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,25 +3047,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>375</v>
+      </c>
+      <c r="D15" s="7">
+        <v>250535</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="7">
         <v>380</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>252392</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="7">
-        <v>375</v>
-      </c>
-      <c r="I15" s="7">
-        <v>250536</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -3082,40 +3094,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7">
+        <v>8864</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>10342</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="7">
-        <v>14</v>
-      </c>
-      <c r="I16" s="7">
-        <v>8864</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -3139,10 +3151,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D17" s="7">
-        <v>17164</v>
+        <v>13068</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>115</v>
@@ -3154,10 +3166,10 @@
         <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>13068</v>
+        <v>17164</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>118</v>
@@ -3175,13 +3187,13 @@
         <v>30232</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,31 +3205,31 @@
         <v>44</v>
       </c>
       <c r="D18" s="7">
-        <v>29277</v>
+        <v>30220</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>44</v>
       </c>
       <c r="I18" s="7">
-        <v>30220</v>
+        <v>29277</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>88</v>
@@ -3226,13 +3238,13 @@
         <v>59497</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,34 +3253,34 @@
         <v>39</v>
       </c>
       <c r="C19" s="7">
+        <v>34</v>
+      </c>
+      <c r="D19" s="7">
+        <v>22890</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="7">
         <v>42</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>28369</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="7">
-        <v>34</v>
-      </c>
-      <c r="I19" s="7">
-        <v>22890</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>76</v>
@@ -3277,13 +3289,13 @@
         <v>51259</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,34 +3304,34 @@
         <v>49</v>
       </c>
       <c r="C20" s="7">
+        <v>78</v>
+      </c>
+      <c r="D20" s="7">
+        <v>51045</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="7">
         <v>83</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>54753</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H20" s="7">
-        <v>78</v>
-      </c>
-      <c r="I20" s="7">
-        <v>51045</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>161</v>
@@ -3328,13 +3340,13 @@
         <v>105798</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,25 +3355,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>189</v>
+      </c>
+      <c r="D21" s="7">
+        <v>126086</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>210</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>139905</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>189</v>
-      </c>
-      <c r="I21" s="7">
-        <v>126086</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -3390,40 +3402,40 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>23</v>
+      </c>
+      <c r="D22" s="7">
+        <v>16254</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="7">
         <v>25</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>16365</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="7">
-        <v>23</v>
-      </c>
-      <c r="I22" s="7">
-        <v>16254</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>48</v>
@@ -3432,13 +3444,13 @@
         <v>32619</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,34 +3459,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>32</v>
+      </c>
+      <c r="D23" s="7">
+        <v>22242</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" s="7">
         <v>38</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>24867</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="7">
-        <v>32</v>
-      </c>
-      <c r="I23" s="7">
-        <v>22242</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>70</v>
@@ -3483,13 +3495,13 @@
         <v>47109</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,34 +3510,34 @@
         <v>29</v>
       </c>
       <c r="C24" s="7">
+        <v>57</v>
+      </c>
+      <c r="D24" s="7">
+        <v>38633</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="7">
         <v>53</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>35775</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H24" s="7">
-        <v>57</v>
-      </c>
-      <c r="I24" s="7">
-        <v>38633</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>110</v>
@@ -3534,13 +3546,13 @@
         <v>74408</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,34 +3561,34 @@
         <v>39</v>
       </c>
       <c r="C25" s="7">
+        <v>53</v>
+      </c>
+      <c r="D25" s="7">
+        <v>34997</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="7">
         <v>71</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>47349</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H25" s="7">
-        <v>53</v>
-      </c>
-      <c r="I25" s="7">
-        <v>34997</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>124</v>
@@ -3585,13 +3597,13 @@
         <v>82347</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,34 +3612,34 @@
         <v>49</v>
       </c>
       <c r="C26" s="7">
+        <v>120</v>
+      </c>
+      <c r="D26" s="7">
+        <v>81177</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H26" s="7">
         <v>121</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>80566</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H26" s="7">
-        <v>120</v>
-      </c>
-      <c r="I26" s="7">
-        <v>81177</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>241</v>
@@ -3636,13 +3648,13 @@
         <v>161743</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,25 +3663,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>285</v>
+      </c>
+      <c r="D27" s="7">
+        <v>193304</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>308</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>204922</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>285</v>
-      </c>
-      <c r="I27" s="7">
-        <v>193304</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -3704,25 +3716,25 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>59</v>
+      </c>
+      <c r="D28" s="7">
+        <v>40378</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" s="7">
         <v>65</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>42793</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="7">
-        <v>59</v>
-      </c>
-      <c r="I28" s="7">
-        <v>40378</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>198</v>
@@ -3740,13 +3752,13 @@
         <v>83171</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,34 +3767,34 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
+        <v>75</v>
+      </c>
+      <c r="D29" s="7">
+        <v>50618</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H29" s="7">
         <v>96</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>63915</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H29" s="7">
-        <v>75</v>
-      </c>
-      <c r="I29" s="7">
-        <v>50618</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>171</v>
@@ -3791,13 +3803,13 @@
         <v>114533</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,34 +3818,34 @@
         <v>29</v>
       </c>
       <c r="C30" s="7">
+        <v>175</v>
+      </c>
+      <c r="D30" s="7">
+        <v>118946</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H30" s="7">
         <v>183</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>122121</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H30" s="7">
-        <v>175</v>
-      </c>
-      <c r="I30" s="7">
-        <v>118946</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>358</v>
@@ -3842,13 +3854,13 @@
         <v>241066</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,34 +3869,34 @@
         <v>39</v>
       </c>
       <c r="C31" s="7">
+        <v>192</v>
+      </c>
+      <c r="D31" s="7">
+        <v>126705</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D31" s="7">
+      <c r="G31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H31" s="7">
+        <v>220</v>
+      </c>
+      <c r="I31" s="7">
         <v>147737</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="J31" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H31" s="7">
-        <v>192</v>
-      </c>
-      <c r="I31" s="7">
-        <v>126705</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>412</v>
@@ -3893,13 +3905,13 @@
         <v>274441</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,34 +3920,34 @@
         <v>49</v>
       </c>
       <c r="C32" s="7">
+        <v>449</v>
+      </c>
+      <c r="D32" s="7">
+        <v>299949</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H32" s="7">
         <v>450</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>297644</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H32" s="7">
-        <v>449</v>
-      </c>
-      <c r="I32" s="7">
-        <v>299949</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>899</v>
@@ -3944,13 +3956,13 @@
         <v>597593</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,25 +3971,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>950</v>
+      </c>
+      <c r="D33" s="7">
+        <v>636595</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>1014</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>674210</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>950</v>
-      </c>
-      <c r="I33" s="7">
-        <v>636595</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -4006,7 +4018,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4026,7 +4038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C729276-913A-4D5D-B60D-547EC602FA0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F9D4F8-8CA7-46AE-A9F9-C8FAB13D00B6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4043,7 +4055,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4144,34 +4156,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H4" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>2938</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4180,13 +4192,13 @@
         <v>2938</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,34 +4207,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5272</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H5" s="7">
         <v>5</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>3398</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5272</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -4231,13 +4243,13 @@
         <v>8670</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,34 +4258,34 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9648</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>6694</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H6" s="7">
-        <v>15</v>
-      </c>
-      <c r="I6" s="7">
-        <v>9648</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M6" s="7">
         <v>25</v>
@@ -4297,10 +4309,10 @@
         <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>8475</v>
+        <v>9273</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>263</v>
@@ -4312,19 +4324,19 @@
         <v>265</v>
       </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>9273</v>
+        <v>8475</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -4333,13 +4345,13 @@
         <v>17748</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,34 +4360,34 @@
         <v>49</v>
       </c>
       <c r="C8" s="7">
+        <v>105</v>
+      </c>
+      <c r="D8" s="7">
+        <v>68964</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H8" s="7">
         <v>94</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>66233</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H8" s="7">
-        <v>105</v>
-      </c>
-      <c r="I8" s="7">
-        <v>68964</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M8" s="7">
         <v>199</v>
@@ -4384,13 +4396,13 @@
         <v>135197</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,25 +4411,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>142</v>
+      </c>
+      <c r="D9" s="7">
+        <v>93157</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="7">
         <v>126</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>87737</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="7">
-        <v>142</v>
-      </c>
-      <c r="I9" s="7">
-        <v>93157</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -4452,34 +4464,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4298</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H10" s="7">
         <v>13</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>8705</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4298</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -4488,13 +4500,13 @@
         <v>13003</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,34 +4515,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7">
+        <v>13323</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" s="7">
         <v>13</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>8785</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="7">
-        <v>18</v>
-      </c>
-      <c r="I11" s="7">
-        <v>13323</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>291</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>292</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>293</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -4539,13 +4551,13 @@
         <v>22108</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,34 +4566,34 @@
         <v>29</v>
       </c>
       <c r="C12" s="7">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D12" s="7">
+        <v>32334</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H12" s="7">
+        <v>59</v>
+      </c>
+      <c r="I12" s="7">
         <v>41824</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H12" s="7">
-        <v>45</v>
-      </c>
-      <c r="I12" s="7">
-        <v>32334</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M12" s="7">
         <v>104</v>
@@ -4590,13 +4602,13 @@
         <v>74158</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>115</v>
+        <v>304</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,34 +4617,34 @@
         <v>39</v>
       </c>
       <c r="C13" s="7">
+        <v>57</v>
+      </c>
+      <c r="D13" s="7">
+        <v>40243</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H13" s="7">
         <v>76</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>52289</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H13" s="7">
-        <v>57</v>
-      </c>
-      <c r="I13" s="7">
-        <v>40243</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -4641,13 +4653,13 @@
         <v>92532</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,31 +4671,31 @@
         <v>211</v>
       </c>
       <c r="D14" s="7">
-        <v>156060</v>
+        <v>144628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H14" s="7">
         <v>211</v>
       </c>
       <c r="I14" s="7">
-        <v>144628</v>
+        <v>156060</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M14" s="7">
         <v>422</v>
@@ -4692,13 +4704,13 @@
         <v>300688</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,25 +4719,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>338</v>
+      </c>
+      <c r="D15" s="7">
+        <v>234825</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="7">
         <v>372</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>267664</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="7">
-        <v>338</v>
-      </c>
-      <c r="I15" s="7">
-        <v>234825</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -4754,40 +4766,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3426</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H16" s="7">
         <v>6</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>4499</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3426</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>324</v>
+        <v>19</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -4796,13 +4808,13 @@
         <v>7925</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,31 +4826,31 @@
         <v>19</v>
       </c>
       <c r="D17" s="7">
-        <v>12845</v>
+        <v>13327</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>13327</v>
+        <v>12845</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>332</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>333</v>
+        <v>37</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -4847,13 +4859,13 @@
         <v>26172</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,34 +4874,34 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
+        <v>40</v>
+      </c>
+      <c r="D18" s="7">
+        <v>27844</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H18" s="7">
         <v>37</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>25314</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H18" s="7">
-        <v>40</v>
-      </c>
-      <c r="I18" s="7">
-        <v>27844</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>340</v>
+        <v>224</v>
       </c>
       <c r="M18" s="7">
         <v>77</v>
@@ -4898,13 +4910,13 @@
         <v>53158</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,34 +4925,34 @@
         <v>39</v>
       </c>
       <c r="C19" s="7">
+        <v>37</v>
+      </c>
+      <c r="D19" s="7">
+        <v>26879</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H19" s="7">
         <v>34</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>24359</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H19" s="7">
-        <v>37</v>
-      </c>
-      <c r="I19" s="7">
-        <v>26879</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -4949,13 +4961,13 @@
         <v>51238</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>351</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>173</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,34 +4976,34 @@
         <v>49</v>
       </c>
       <c r="C20" s="7">
+        <v>121</v>
+      </c>
+      <c r="D20" s="7">
+        <v>84958</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H20" s="7">
         <v>130</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>90244</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H20" s="7">
-        <v>121</v>
-      </c>
-      <c r="I20" s="7">
-        <v>84958</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M20" s="7">
         <v>251</v>
@@ -5000,13 +5012,13 @@
         <v>175203</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,25 +5027,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>222</v>
+      </c>
+      <c r="D21" s="7">
+        <v>156434</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>226</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>157261</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>222</v>
-      </c>
-      <c r="I21" s="7">
-        <v>156434</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -5062,40 +5074,40 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7">
+        <v>8120</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H22" s="7">
         <v>13</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>9252</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="7">
-        <v>12</v>
-      </c>
-      <c r="I22" s="7">
-        <v>8120</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -5104,13 +5116,13 @@
         <v>17372</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,34 +5131,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>20</v>
+      </c>
+      <c r="D23" s="7">
+        <v>13220</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H23" s="7">
         <v>37</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>24965</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H23" s="7">
-        <v>20</v>
-      </c>
-      <c r="I23" s="7">
-        <v>13220</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M23" s="7">
         <v>57</v>
@@ -5155,13 +5167,13 @@
         <v>38185</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,34 +5182,34 @@
         <v>29</v>
       </c>
       <c r="C24" s="7">
+        <v>47</v>
+      </c>
+      <c r="D24" s="7">
+        <v>34460</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H24" s="7">
         <v>61</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>40935</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="H24" s="7">
-        <v>47</v>
-      </c>
-      <c r="I24" s="7">
-        <v>34460</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M24" s="7">
         <v>108</v>
@@ -5206,13 +5218,13 @@
         <v>75395</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,34 +5233,34 @@
         <v>39</v>
       </c>
       <c r="C25" s="7">
+        <v>42</v>
+      </c>
+      <c r="D25" s="7">
+        <v>29421</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H25" s="7">
         <v>39</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>26662</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H25" s="7">
-        <v>42</v>
-      </c>
-      <c r="I25" s="7">
-        <v>29421</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>387</v>
+        <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -5257,13 +5269,13 @@
         <v>56082</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,34 +5284,34 @@
         <v>49</v>
       </c>
       <c r="C26" s="7">
+        <v>122</v>
+      </c>
+      <c r="D26" s="7">
+        <v>86116</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H26" s="7">
         <v>112</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>76065</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="H26" s="7">
-        <v>122</v>
-      </c>
-      <c r="I26" s="7">
-        <v>86116</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>396</v>
+        <v>101</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M26" s="7">
         <v>234</v>
@@ -5308,13 +5320,13 @@
         <v>162181</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,25 +5335,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>243</v>
+      </c>
+      <c r="D27" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>262</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>177878</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>243</v>
-      </c>
-      <c r="I27" s="7">
-        <v>171337</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -5376,34 +5388,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>24</v>
+      </c>
+      <c r="D28" s="7">
+        <v>15844</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H28" s="7">
         <v>36</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>25394</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="H28" s="7">
-        <v>24</v>
-      </c>
-      <c r="I28" s="7">
-        <v>15844</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>407</v>
+        <v>74</v>
       </c>
       <c r="M28" s="7">
         <v>60</v>
@@ -5412,13 +5424,13 @@
         <v>41238</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,25 +5439,25 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D29" s="7">
-        <v>49993</v>
+        <v>45141</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>412</v>
+        <v>67</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>413</v>
       </c>
       <c r="H29" s="7">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I29" s="7">
-        <v>45141</v>
+        <v>49993</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>414</v>
@@ -5454,7 +5466,7 @@
         <v>415</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>162</v>
+        <v>416</v>
       </c>
       <c r="M29" s="7">
         <v>139</v>
@@ -5463,13 +5475,13 @@
         <v>95134</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,34 +5490,34 @@
         <v>29</v>
       </c>
       <c r="C30" s="7">
+        <v>147</v>
+      </c>
+      <c r="D30" s="7">
+        <v>104286</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H30" s="7">
         <v>167</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>114766</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H30" s="7">
-        <v>147</v>
-      </c>
-      <c r="I30" s="7">
-        <v>104286</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M30" s="7">
         <v>314</v>
@@ -5514,13 +5526,13 @@
         <v>219052</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>425</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>426</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>427</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,34 +5541,34 @@
         <v>39</v>
       </c>
       <c r="C31" s="7">
+        <v>150</v>
+      </c>
+      <c r="D31" s="7">
+        <v>105816</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="H31" s="7">
         <v>162</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>111785</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="J31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="H31" s="7">
-        <v>150</v>
-      </c>
-      <c r="I31" s="7">
-        <v>105816</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>429</v>
-      </c>
       <c r="L31" s="7" t="s">
-        <v>432</v>
+        <v>132</v>
       </c>
       <c r="M31" s="7">
         <v>312</v>
@@ -5565,13 +5577,13 @@
         <v>217601</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,34 +5592,34 @@
         <v>49</v>
       </c>
       <c r="C32" s="7">
+        <v>559</v>
+      </c>
+      <c r="D32" s="7">
+        <v>384667</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H32" s="7">
         <v>547</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>388603</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="H32" s="7">
-        <v>559</v>
-      </c>
-      <c r="I32" s="7">
-        <v>384667</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M32" s="7">
         <v>1106</v>
@@ -5616,13 +5628,13 @@
         <v>773269</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,25 +5643,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>945</v>
+      </c>
+      <c r="D33" s="7">
+        <v>655753</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>986</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>690541</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>945</v>
-      </c>
-      <c r="I33" s="7">
-        <v>655753</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -5678,7 +5690,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -5698,7 +5710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A7EDEB-2C2F-42D6-9251-E9C64A1850F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94783FA7-DB63-4E1A-8115-E264885D1843}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5715,7 +5727,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5819,31 +5831,31 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>715</v>
+        <v>648</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>648</v>
+        <v>715</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>446</v>
+        <v>21</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5852,13 +5864,13 @@
         <v>1363</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,34 +5879,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>1282</v>
+        <v>2598</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>245</v>
+        <v>448</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>449</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>450</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>2598</v>
+        <v>1282</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5903,7 +5915,7 @@
         <v>3880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>453</v>
@@ -5918,25 +5930,25 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4250</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H6" s="7">
         <v>12</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>8475</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4250</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>457</v>
@@ -5945,7 +5957,7 @@
         <v>458</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>459</v>
+        <v>299</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -5954,13 +5966,13 @@
         <v>12725</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,34 +5981,34 @@
         <v>39</v>
       </c>
       <c r="C7" s="7">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7">
+        <v>13772</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H7" s="7">
         <v>22</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>14752</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="H7" s="7">
-        <v>23</v>
-      </c>
-      <c r="I7" s="7">
-        <v>13772</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -6005,13 +6017,13 @@
         <v>28524</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>470</v>
+        <v>389</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,34 +6032,34 @@
         <v>49</v>
       </c>
       <c r="C8" s="7">
+        <v>103</v>
+      </c>
+      <c r="D8" s="7">
+        <v>64723</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="H8" s="7">
         <v>83</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>54075</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="H8" s="7">
-        <v>103</v>
-      </c>
-      <c r="I8" s="7">
-        <v>64723</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="M8" s="7">
         <v>186</v>
@@ -6056,13 +6068,13 @@
         <v>118798</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,25 +6083,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>138</v>
+      </c>
+      <c r="D9" s="7">
+        <v>85991</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="7">
         <v>120</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>79299</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="7">
-        <v>138</v>
-      </c>
-      <c r="I9" s="7">
-        <v>85991</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -6124,34 +6136,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1966</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>5648</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1966</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -6160,13 +6172,13 @@
         <v>7614</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,31 +6187,31 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7">
+        <v>9649</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H11" s="7">
         <v>20</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>13405</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="7">
-        <v>15</v>
-      </c>
-      <c r="I11" s="7">
-        <v>9649</v>
-      </c>
       <c r="J11" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>490</v>
@@ -6211,7 +6223,7 @@
         <v>23053</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>457</v>
+        <v>196</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>491</v>
@@ -6226,34 +6238,34 @@
         <v>29</v>
       </c>
       <c r="C12" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="7">
-        <v>27427</v>
+        <v>24645</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>493</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="7">
+        <v>41</v>
+      </c>
+      <c r="I12" s="7">
+        <v>27427</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="H12" s="7">
-        <v>39</v>
-      </c>
-      <c r="I12" s="7">
-        <v>24645</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>497</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>498</v>
+        <v>340</v>
       </c>
       <c r="M12" s="7">
         <v>80</v>
@@ -6262,13 +6274,13 @@
         <v>52072</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>501</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,31 +6292,31 @@
         <v>81</v>
       </c>
       <c r="D13" s="7">
-        <v>56345</v>
+        <v>53486</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>498</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H13" s="7">
         <v>81</v>
       </c>
       <c r="I13" s="7">
-        <v>53486</v>
+        <v>56345</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -6313,13 +6325,13 @@
         <v>109831</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,34 +6340,34 @@
         <v>49</v>
       </c>
       <c r="C14" s="7">
+        <v>192</v>
+      </c>
+      <c r="D14" s="7">
+        <v>119658</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="H14" s="7">
         <v>229</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>154528</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="H14" s="7">
-        <v>192</v>
-      </c>
-      <c r="I14" s="7">
-        <v>119658</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="M14" s="7">
         <v>421</v>
@@ -6364,13 +6376,13 @@
         <v>274185</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,25 +6391,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>330</v>
+      </c>
+      <c r="D15" s="7">
+        <v>209403</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="7">
         <v>379</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>257352</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="7">
-        <v>330</v>
-      </c>
-      <c r="I15" s="7">
-        <v>209403</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -6426,40 +6438,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4600</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="H16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>11123</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4600</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -6468,13 +6480,13 @@
         <v>15723</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,34 +6495,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7">
+        <v>9840</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="H17" s="7">
         <v>17</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>12173</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="H17" s="7">
-        <v>15</v>
-      </c>
-      <c r="I17" s="7">
-        <v>9840</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>487</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>529</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -6519,13 +6531,13 @@
         <v>22013</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>267</v>
+        <v>529</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>530</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,34 +6546,34 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
+        <v>52</v>
+      </c>
+      <c r="D18" s="7">
+        <v>37072</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="H18" s="7">
         <v>48</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>35274</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="H18" s="7">
-        <v>52</v>
-      </c>
-      <c r="I18" s="7">
-        <v>37072</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M18" s="7">
         <v>100</v>
@@ -6570,10 +6582,10 @@
         <v>72346</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>538</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>539</v>
@@ -6588,7 +6600,7 @@
         <v>59</v>
       </c>
       <c r="D19" s="7">
-        <v>42135</v>
+        <v>41468</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>540</v>
@@ -6603,7 +6615,7 @@
         <v>59</v>
       </c>
       <c r="I19" s="7">
-        <v>41468</v>
+        <v>42135</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>543</v>
@@ -6636,10 +6648,10 @@
         <v>49</v>
       </c>
       <c r="C20" s="7">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D20" s="7">
-        <v>87867</v>
+        <v>93146</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>549</v>
@@ -6651,10 +6663,10 @@
         <v>551</v>
       </c>
       <c r="H20" s="7">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="I20" s="7">
-        <v>93146</v>
+        <v>87867</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>552</v>
@@ -6687,25 +6699,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>268</v>
+      </c>
+      <c r="D21" s="7">
+        <v>186126</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>263</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>188572</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>268</v>
-      </c>
-      <c r="I21" s="7">
-        <v>186126</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -6734,16 +6746,16 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>7814</v>
+        <v>4722</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>558</v>
@@ -6752,19 +6764,19 @@
         <v>559</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>75</v>
+        <v>560</v>
       </c>
       <c r="H22" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>4722</v>
+        <v>7814</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>561</v>
+        <v>329</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>562</v>
@@ -6791,34 +6803,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>25</v>
+      </c>
+      <c r="D23" s="7">
+        <v>16060</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="H23" s="7">
         <v>22</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>16165</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H23" s="7">
-        <v>25</v>
-      </c>
-      <c r="I23" s="7">
-        <v>16060</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>567</v>
+        <v>205</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>335</v>
+        <v>569</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -6827,13 +6839,13 @@
         <v>32226</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>572</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,34 +6854,34 @@
         <v>29</v>
       </c>
       <c r="C24" s="7">
+        <v>53</v>
+      </c>
+      <c r="D24" s="7">
+        <v>37494</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="H24" s="7">
         <v>39</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>28724</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="H24" s="7">
-        <v>53</v>
-      </c>
-      <c r="I24" s="7">
-        <v>37494</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="M24" s="7">
         <v>92</v>
@@ -6878,13 +6890,13 @@
         <v>66217</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,34 +6905,34 @@
         <v>39</v>
       </c>
       <c r="C25" s="7">
+        <v>54</v>
+      </c>
+      <c r="D25" s="7">
+        <v>38323</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="H25" s="7">
         <v>52</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>38923</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="H25" s="7">
-        <v>54</v>
-      </c>
-      <c r="I25" s="7">
-        <v>38323</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -6929,13 +6941,13 @@
         <v>77246</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>586</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6944,34 +6956,34 @@
         <v>49</v>
       </c>
       <c r="C26" s="7">
+        <v>107</v>
+      </c>
+      <c r="D26" s="7">
+        <v>76702</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="H26" s="7">
         <v>106</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>78832</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="H26" s="7">
-        <v>107</v>
-      </c>
-      <c r="I26" s="7">
-        <v>76702</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M26" s="7">
         <v>213</v>
@@ -6980,13 +6992,13 @@
         <v>155533</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6995,25 +7007,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>246</v>
+      </c>
+      <c r="D27" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>230</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170458</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>246</v>
-      </c>
-      <c r="I27" s="7">
-        <v>173301</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -7048,34 +7060,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>18</v>
+      </c>
+      <c r="D28" s="7">
+        <v>11935</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H28" s="7">
         <v>36</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>25300</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="H28" s="7">
-        <v>18</v>
-      </c>
-      <c r="I28" s="7">
-        <v>11935</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>600</v>
+        <v>248</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>319</v>
+        <v>602</v>
       </c>
       <c r="M28" s="7">
         <v>54</v>
@@ -7084,13 +7096,13 @@
         <v>37235</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,34 +7111,34 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
+        <v>59</v>
+      </c>
+      <c r="D29" s="7">
+        <v>38146</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="H29" s="7">
         <v>61</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>43025</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H29" s="7">
-        <v>59</v>
-      </c>
-      <c r="I29" s="7">
-        <v>38146</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>607</v>
+        <v>364</v>
       </c>
       <c r="M29" s="7">
         <v>120</v>
@@ -7135,13 +7147,13 @@
         <v>81172</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>153</v>
+        <v>612</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,34 +7162,34 @@
         <v>29</v>
       </c>
       <c r="C30" s="7">
+        <v>151</v>
+      </c>
+      <c r="D30" s="7">
+        <v>103461</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H30" s="7">
         <v>140</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>99900</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="7">
-        <v>151</v>
-      </c>
-      <c r="I30" s="7">
-        <v>103461</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>613</v>
+        <v>573</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="M30" s="7">
         <v>291</v>
@@ -7186,13 +7198,13 @@
         <v>203360</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>616</v>
+        <v>344</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,34 +7213,34 @@
         <v>39</v>
       </c>
       <c r="C31" s="7">
+        <v>217</v>
+      </c>
+      <c r="D31" s="7">
+        <v>147049</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="H31" s="7">
         <v>214</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>152155</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="H31" s="7">
-        <v>217</v>
-      </c>
-      <c r="I31" s="7">
-        <v>147049</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="M31" s="7">
         <v>431</v>
@@ -7237,13 +7249,13 @@
         <v>299204</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,49 +7264,49 @@
         <v>49</v>
       </c>
       <c r="C32" s="7">
+        <v>537</v>
+      </c>
+      <c r="D32" s="7">
+        <v>354229</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="H32" s="7">
         <v>541</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>375301</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="H32" s="7">
-        <v>537</v>
-      </c>
-      <c r="I32" s="7">
-        <v>354229</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="M32" s="7">
         <v>1078</v>
       </c>
       <c r="N32" s="7">
-        <v>729529</v>
+        <v>729530</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>100</v>
+        <v>637</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,25 +7315,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>982</v>
+      </c>
+      <c r="D33" s="7">
+        <v>654820</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>992</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>695681</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>982</v>
-      </c>
-      <c r="I33" s="7">
-        <v>654820</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -7336,7 +7348,7 @@
         <v>1974</v>
       </c>
       <c r="N33" s="7">
-        <v>1350500</v>
+        <v>1350501</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>59</v>
@@ -7350,7 +7362,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
